--- a/13/1/2/3/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/3/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="167">
   <si>
     <t>Serie</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB143"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12704,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="P138">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="Q138">
         <v>0</v>
@@ -12737,10 +12740,10 @@
         <v>0</v>
       </c>
       <c r="AA138">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="AB138">
-        <v>-2372</v>
+        <v>-2374</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12790,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="P139">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -12823,10 +12826,10 @@
         <v>0</v>
       </c>
       <c r="AA139">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="AB139">
-        <v>-2324</v>
+        <v>-2327</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12876,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="P140">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="Q140">
         <v>0</v>
@@ -12909,10 +12912,10 @@
         <v>0</v>
       </c>
       <c r="AA140">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="AB140">
-        <v>-2276</v>
+        <v>-2279</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12962,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="P141">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -12995,10 +12998,10 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="AB141">
-        <v>-2197</v>
+        <v>-2200</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -13048,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -13081,10 +13084,10 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="AB142">
-        <v>-2134</v>
+        <v>-2137</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -13134,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="P143">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -13167,10 +13170,96 @@
         <v>0</v>
       </c>
       <c r="AA143">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="AB143">
-        <v>-2071</v>
+        <v>-2074</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28">
+      <c r="A144" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>2007</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>2007</v>
+      </c>
+      <c r="AB144">
+        <v>-2007</v>
       </c>
     </row>
   </sheetData>

--- a/13/1/2/3/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/3/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="168">
   <si>
     <t>Serie</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -872,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13262,6 +13265,92 @@
         <v>-2007</v>
       </c>
     </row>
+    <row r="145" spans="1:28">
+      <c r="A145" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>1942</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>1942</v>
+      </c>
+      <c r="AB145">
+        <v>-1942</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/1/2/3/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/3/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="169">
   <si>
     <t>Serie</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -875,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12710,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="P138">
-        <v>2374</v>
+        <v>2381</v>
       </c>
       <c r="Q138">
         <v>0</v>
@@ -12743,10 +12746,10 @@
         <v>0</v>
       </c>
       <c r="AA138">
-        <v>2374</v>
+        <v>2381</v>
       </c>
       <c r="AB138">
-        <v>-2374</v>
+        <v>-2381</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12796,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="P139">
-        <v>2327</v>
+        <v>2338</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -12829,10 +12832,10 @@
         <v>0</v>
       </c>
       <c r="AA139">
-        <v>2327</v>
+        <v>2338</v>
       </c>
       <c r="AB139">
-        <v>-2327</v>
+        <v>-2338</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12882,7 +12885,7 @@
         <v>0</v>
       </c>
       <c r="P140">
-        <v>2279</v>
+        <v>2294</v>
       </c>
       <c r="Q140">
         <v>0</v>
@@ -12915,10 +12918,10 @@
         <v>0</v>
       </c>
       <c r="AA140">
-        <v>2279</v>
+        <v>2294</v>
       </c>
       <c r="AB140">
-        <v>-2279</v>
+        <v>-2294</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12968,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="P141">
-        <v>2200</v>
+        <v>2211</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -13001,10 +13004,10 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>2200</v>
+        <v>2211</v>
       </c>
       <c r="AB141">
-        <v>-2200</v>
+        <v>-2211</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -13054,7 +13057,7 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <v>2137</v>
+        <v>2148</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -13087,10 +13090,10 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>2137</v>
+        <v>2148</v>
       </c>
       <c r="AB142">
-        <v>-2137</v>
+        <v>-2148</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -13140,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="P143">
-        <v>2074</v>
+        <v>2085</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -13173,10 +13176,10 @@
         <v>0</v>
       </c>
       <c r="AA143">
-        <v>2074</v>
+        <v>2085</v>
       </c>
       <c r="AB143">
-        <v>-2074</v>
+        <v>-2085</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -13226,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="P144">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -13259,10 +13262,10 @@
         <v>0</v>
       </c>
       <c r="AA144">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="AB144">
-        <v>-2007</v>
+        <v>-2020</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -13312,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="P145">
-        <v>1942</v>
+        <v>1955</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -13345,10 +13348,96 @@
         <v>0</v>
       </c>
       <c r="AA145">
-        <v>1942</v>
+        <v>1955</v>
       </c>
       <c r="AB145">
-        <v>-1942</v>
+        <v>-1955</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28">
+      <c r="A146" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>1891</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>1891</v>
+      </c>
+      <c r="AB146">
+        <v>-1891</v>
       </c>
     </row>
   </sheetData>
